--- a/uploaded/pok/REV_DIPA_4_2020-master.xlsx
+++ b/uploaded/pok/REV_DIPA_4_2020-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rifki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF75F9A2-A317-4D7D-B779-E130FB08E222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC943AC-8125-4565-A061-6A6AFDC9CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1472,9 +1472,6 @@
     <t xml:space="preserve">    - Pengadaan PC</t>
   </si>
   <si>
-    <t xml:space="preserve">    - Pengadaan Profesional Kamera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    - Pengadaan Kartu Pengenal</t>
   </si>
   <si>
@@ -1485,6 +1482,9 @@
   </si>
   <si>
     <t xml:space="preserve">    - Pengadaan Perangkat Pendukung PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Pengadaan Kamera GoPro</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:H1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1923,19 +1923,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>479</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1">
-        <v>15000000</v>
+        <v>4200000</v>
       </c>
       <c r="F7" s="1">
-        <v>195000000</v>
+        <v>126000000</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -1949,19 +1949,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>479</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>4200000</v>
+        <v>15000000</v>
       </c>
       <c r="F8" s="1">
-        <v>126000000</v>
+        <v>195000000</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
@@ -1975,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
@@ -2079,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -2989,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
